--- a/Planner.xlsx
+++ b/Planner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukeh\Desktop\Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A014844C-4BE7-4976-B8AF-B5D8DB1099CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3CC872-F3E4-4FDA-8126-DE0F47A9F638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F1C073E-7DB9-E242-BB39-302AFDA3FEA0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="156">
   <si>
     <t>Assignment Tracker</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t>Report, video &amp; soft submit</t>
+  </si>
+  <si>
+    <t>May need to add more risks and issues if needed</t>
   </si>
 </sst>
 </file>
@@ -971,6 +974,27 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -991,27 +1015,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1387,34 +1390,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="36" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="44"/>
+      <c r="G2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="37"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:8" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1553,14 +1556,14 @@
       <c r="B12" s="18">
         <v>45211</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="42" t="s">
+      <c r="C12" s="39"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="43"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="1:8" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
@@ -1569,14 +1572,14 @@
       <c r="B13" s="19">
         <v>45225</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="44" t="s">
+      <c r="C13" s="40"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="45"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -1678,17 +1681,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1699,7 +1702,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1764,11 +1767,13 @@
         <v>104</v>
       </c>
       <c r="E3" s="22">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="22"/>
-      <c r="H3" s="21"/>
+      <c r="H3" s="21" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">

--- a/Planner.xlsx
+++ b/Planner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukeh\Desktop\Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3CC872-F3E4-4FDA-8126-DE0F47A9F638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7B10CA-9590-4335-9E79-4D1E9BEF27B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F1C073E-7DB9-E242-BB39-302AFDA3FEA0}"/>
   </bookViews>
@@ -974,6 +974,27 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -994,27 +1015,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1390,34 +1390,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="43" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="42" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="44"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1556,14 +1556,14 @@
       <c r="B12" s="18">
         <v>45211</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="35" t="s">
+      <c r="C12" s="46"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="36"/>
+      <c r="H12" s="43"/>
     </row>
     <row r="13" spans="1:8" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
@@ -1572,14 +1572,14 @@
       <c r="B13" s="19">
         <v>45225</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="37" t="s">
+      <c r="C13" s="47"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="38"/>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -1681,17 +1681,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:H1"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1702,7 +1702,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1788,11 +1788,15 @@
       <c r="D4" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="22">
+        <v>100</v>
+      </c>
       <c r="F4" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="22">
+        <v>100</v>
+      </c>
       <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="63" x14ac:dyDescent="0.25">
@@ -1806,7 +1810,9 @@
       <c r="D5" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="22">
+        <v>50</v>
+      </c>
       <c r="F5" s="21" t="s">
         <v>107</v>
       </c>

--- a/Planner.xlsx
+++ b/Planner.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukeh\Desktop\Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7B10CA-9590-4335-9E79-4D1E9BEF27B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9C8054-9AED-499E-A39F-DED3CEDC4947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F1C073E-7DB9-E242-BB39-302AFDA3FEA0}"/>
   </bookViews>
@@ -974,6 +974,27 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -994,27 +1015,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1390,34 +1390,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="36" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="44"/>
+      <c r="G2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="37"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:8" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1556,14 +1556,14 @@
       <c r="B12" s="18">
         <v>45211</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="42" t="s">
+      <c r="C12" s="39"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="43"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="1:8" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
@@ -1572,14 +1572,14 @@
       <c r="B13" s="19">
         <v>45225</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="44" t="s">
+      <c r="C13" s="40"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="45"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -1681,17 +1681,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1816,7 +1816,9 @@
       <c r="F5" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="22"/>
+      <c r="G5" s="22">
+        <v>100</v>
+      </c>
       <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" ht="84" x14ac:dyDescent="0.25">

--- a/Planner.xlsx
+++ b/Planner.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukeh\Desktop\Dissertation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fluke\Desktop\Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9C8054-9AED-499E-A39F-DED3CEDC4947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D768636-C5DB-4A52-82C4-3599AC213EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F1C073E-7DB9-E242-BB39-302AFDA3FEA0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F1C073E-7DB9-E242-BB39-302AFDA3FEA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -974,6 +974,27 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -994,27 +1015,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1390,34 +1390,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="43" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="42" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="44"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1556,14 +1556,14 @@
       <c r="B12" s="18">
         <v>45211</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="35" t="s">
+      <c r="C12" s="46"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="36"/>
+      <c r="H12" s="43"/>
     </row>
     <row r="13" spans="1:8" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
@@ -1572,14 +1572,14 @@
       <c r="B13" s="19">
         <v>45225</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="37" t="s">
+      <c r="C13" s="47"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="38"/>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -1681,17 +1681,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:H1"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1811,7 +1811,7 @@
         <v>105</v>
       </c>
       <c r="E5" s="22">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>107</v>
